--- a/data/pca/factorExposure/factorExposure_2013-04-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-04-30.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0006993781274473765</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001783497608276272</v>
+      </c>
+      <c r="C2">
+        <v>0.03342738810752421</v>
+      </c>
+      <c r="D2">
+        <v>0.005929841076945799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001106275459309159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.005950124071895084</v>
+      </c>
+      <c r="C4">
+        <v>0.08447278210530929</v>
+      </c>
+      <c r="D4">
+        <v>0.07893326655841205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-3.410286815213274e-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01316464923202199</v>
+      </c>
+      <c r="C6">
+        <v>0.1076212725277593</v>
+      </c>
+      <c r="D6">
+        <v>0.0347748566312772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001884773377297268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004753969418583331</v>
+      </c>
+      <c r="C7">
+        <v>0.0538628117531912</v>
+      </c>
+      <c r="D7">
+        <v>0.03534238837434938</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0006318081656974118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005591162712404235</v>
+      </c>
+      <c r="C8">
+        <v>0.03753978545572319</v>
+      </c>
+      <c r="D8">
+        <v>0.0381786015990488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003891358287284374</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.003965579403025857</v>
+      </c>
+      <c r="C9">
+        <v>0.06991564144580684</v>
+      </c>
+      <c r="D9">
+        <v>0.07178011449343266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004641176608081573</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005649726562565044</v>
+      </c>
+      <c r="C10">
+        <v>0.07317359350780776</v>
+      </c>
+      <c r="D10">
+        <v>-0.2139202136732584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002768401336478024</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005205309168577095</v>
+      </c>
+      <c r="C11">
+        <v>0.07837097670278849</v>
+      </c>
+      <c r="D11">
+        <v>0.06513967065753855</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0003176907565923433</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004022365281670911</v>
+      </c>
+      <c r="C12">
+        <v>0.06415715533064362</v>
+      </c>
+      <c r="D12">
+        <v>0.04731105888294997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003060635454331563</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008594298713299579</v>
+      </c>
+      <c r="C13">
+        <v>0.06985139200201738</v>
+      </c>
+      <c r="D13">
+        <v>0.06369957465046788</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001284440309780777</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001512329345359215</v>
+      </c>
+      <c r="C14">
+        <v>0.04670540174931817</v>
+      </c>
+      <c r="D14">
+        <v>0.01379935145284987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.001031290934774093</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005870485552444208</v>
+      </c>
+      <c r="C15">
+        <v>0.04043666295730161</v>
+      </c>
+      <c r="D15">
+        <v>0.03248847446060904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001362834723842888</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004870474662003368</v>
+      </c>
+      <c r="C16">
+        <v>0.06471539310361202</v>
+      </c>
+      <c r="D16">
+        <v>0.05013305234507742</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0004490840582385836</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008878986633399236</v>
+      </c>
+      <c r="C20">
+        <v>0.06482942449831007</v>
+      </c>
+      <c r="D20">
+        <v>0.05578281701190475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.006278081029942061</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.00980446331090677</v>
+      </c>
+      <c r="C21">
+        <v>0.0230614669249573</v>
+      </c>
+      <c r="D21">
+        <v>0.03539950151382562</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01748774111007075</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006881792791209848</v>
+      </c>
+      <c r="C22">
+        <v>0.09340543069386016</v>
+      </c>
+      <c r="D22">
+        <v>0.1014690847431308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01781519386214425</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006695393897003354</v>
+      </c>
+      <c r="C23">
+        <v>0.09426006204691964</v>
+      </c>
+      <c r="D23">
+        <v>0.101803213589352</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.00185637951019993</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004883951005405215</v>
+      </c>
+      <c r="C24">
+        <v>0.07339917681329823</v>
+      </c>
+      <c r="D24">
+        <v>0.06159103716183477</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003719964506139491</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002715760387154869</v>
+      </c>
+      <c r="C25">
+        <v>0.07748731783136338</v>
+      </c>
+      <c r="D25">
+        <v>0.06660892437323546</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.005724916521826383</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.00357438535500896</v>
+      </c>
+      <c r="C26">
+        <v>0.04074957166370345</v>
+      </c>
+      <c r="D26">
+        <v>0.02893740761695324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004303358849079881</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0004266819218022854</v>
+      </c>
+      <c r="C28">
+        <v>0.1220704643719896</v>
+      </c>
+      <c r="D28">
+        <v>-0.3107274502880371</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001214577043139424</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003219779981507785</v>
+      </c>
+      <c r="C29">
+        <v>0.04933994247958461</v>
+      </c>
+      <c r="D29">
+        <v>0.01337979940385702</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003943050655965942</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008559985449296231</v>
+      </c>
+      <c r="C30">
+        <v>0.1381081592624756</v>
+      </c>
+      <c r="D30">
+        <v>0.107783570798822</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-8.862425432699598e-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006092855584041424</v>
+      </c>
+      <c r="C31">
+        <v>0.04581271744590093</v>
+      </c>
+      <c r="D31">
+        <v>0.03114866626859661</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0001296583145372943</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003995410857007696</v>
+      </c>
+      <c r="C32">
+        <v>0.04013148349126212</v>
+      </c>
+      <c r="D32">
+        <v>0.01830551770309489</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003576878740679096</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007785548375637255</v>
+      </c>
+      <c r="C33">
+        <v>0.08350510045627305</v>
+      </c>
+      <c r="D33">
+        <v>0.07537279209647048</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.003817423152937537</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003809211544771453</v>
+      </c>
+      <c r="C34">
+        <v>0.05790876210630617</v>
+      </c>
+      <c r="D34">
+        <v>0.04741070453249702</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.00254361356210546</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004731200516447998</v>
+      </c>
+      <c r="C35">
+        <v>0.0387300222526153</v>
+      </c>
+      <c r="D35">
+        <v>0.01406028079732035</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004139893049143251</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.00139770088885421</v>
+      </c>
+      <c r="C36">
+        <v>0.02376310854887436</v>
+      </c>
+      <c r="D36">
+        <v>0.02313301027083941</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.001953267101644434</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009224918209741171</v>
+      </c>
+      <c r="C38">
+        <v>0.03292179220152164</v>
+      </c>
+      <c r="D38">
+        <v>0.01952694898989922</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01251015627257396</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001017414856438785</v>
+      </c>
+      <c r="C39">
+        <v>0.1156871987188997</v>
+      </c>
+      <c r="D39">
+        <v>0.08492994775214201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009456429668499638</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002116664279785538</v>
+      </c>
+      <c r="C40">
+        <v>0.08737475444779989</v>
+      </c>
+      <c r="D40">
+        <v>0.02063370388810084</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0001255609216260894</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007357510165548076</v>
+      </c>
+      <c r="C41">
+        <v>0.03927585105011025</v>
+      </c>
+      <c r="D41">
+        <v>0.03455336522540677</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.00297402354178226</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003539284887122823</v>
+      </c>
+      <c r="C43">
+        <v>0.05074657412441128</v>
+      </c>
+      <c r="D43">
+        <v>0.02547624331652788</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.002033131678160602</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003404335907443773</v>
+      </c>
+      <c r="C44">
+        <v>0.1089395581964162</v>
+      </c>
+      <c r="D44">
+        <v>0.0848375262095958</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001410803730807258</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002260742957497052</v>
+      </c>
+      <c r="C46">
+        <v>0.03463005109249189</v>
+      </c>
+      <c r="D46">
+        <v>0.03095200522536263</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>6.294574798436302e-05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002596753413149856</v>
+      </c>
+      <c r="C47">
+        <v>0.0383547386226108</v>
+      </c>
+      <c r="D47">
+        <v>0.02349686868985666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004052218726001371</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006343946798334695</v>
+      </c>
+      <c r="C48">
+        <v>0.02844635161945325</v>
+      </c>
+      <c r="D48">
+        <v>0.03322908084734189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.0134249232542841</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01425403665173025</v>
+      </c>
+      <c r="C49">
+        <v>0.1730138901094833</v>
+      </c>
+      <c r="D49">
+        <v>0.02738530512917666</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0009294846800386267</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003568354596189926</v>
+      </c>
+      <c r="C50">
+        <v>0.04270663336994122</v>
+      </c>
+      <c r="D50">
+        <v>0.03585801145101391</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001572582939694521</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004267375509500926</v>
+      </c>
+      <c r="C51">
+        <v>0.02119905164859814</v>
+      </c>
+      <c r="D51">
+        <v>0.03244062594577342</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001364664606699296</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02004709291312559</v>
+      </c>
+      <c r="C53">
+        <v>0.1658187576279889</v>
+      </c>
+      <c r="D53">
+        <v>0.04737409052570762</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001081765538551533</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008579723392457588</v>
+      </c>
+      <c r="C54">
+        <v>0.05532572026544447</v>
+      </c>
+      <c r="D54">
+        <v>0.04244791140840895</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003584734547805296</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009120227253180634</v>
+      </c>
+      <c r="C55">
+        <v>0.1062245655808966</v>
+      </c>
+      <c r="D55">
+        <v>0.05237783574916794</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.004219745871545006</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01936378673715755</v>
+      </c>
+      <c r="C56">
+        <v>0.1725317236320068</v>
+      </c>
+      <c r="D56">
+        <v>0.04515635651425052</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.008178805646429439</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01922106162198554</v>
+      </c>
+      <c r="C58">
+        <v>0.1032463878408519</v>
+      </c>
+      <c r="D58">
+        <v>0.06981594218217356</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006444132046828786</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009511417826437767</v>
+      </c>
+      <c r="C59">
+        <v>0.1670836257659445</v>
+      </c>
+      <c r="D59">
+        <v>-0.2857700498434276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004203435928329218</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02322516395393538</v>
+      </c>
+      <c r="C60">
+        <v>0.2218155115839768</v>
+      </c>
+      <c r="D60">
+        <v>0.02861250086291966</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01307760357773921</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.00208153242595457</v>
+      </c>
+      <c r="C61">
+        <v>0.09489328772305022</v>
+      </c>
+      <c r="D61">
+        <v>0.06233389721000798</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1739915999029064</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1435754146951373</v>
+      </c>
+      <c r="C62">
+        <v>0.07990062101497414</v>
+      </c>
+      <c r="D62">
+        <v>0.05593454457118009</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001074856731892737</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006335919303585679</v>
+      </c>
+      <c r="C63">
+        <v>0.05973372544208938</v>
+      </c>
+      <c r="D63">
+        <v>0.02481977853516789</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.006118044918144947</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01474397059543289</v>
+      </c>
+      <c r="C64">
+        <v>0.1029924408462103</v>
+      </c>
+      <c r="D64">
+        <v>0.06421886122189902</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.00104760599921678</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01700088037766377</v>
+      </c>
+      <c r="C65">
+        <v>0.1154089045365265</v>
+      </c>
+      <c r="D65">
+        <v>0.02406567728371364</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007329113021567886</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01214550145362996</v>
+      </c>
+      <c r="C66">
+        <v>0.1545849358501549</v>
+      </c>
+      <c r="D66">
+        <v>0.1222517163475467</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003652582318001487</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01532108186777393</v>
+      </c>
+      <c r="C67">
+        <v>0.06304325902346057</v>
+      </c>
+      <c r="D67">
+        <v>0.03031842664167715</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006985222643518659</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001103373728163065</v>
+      </c>
+      <c r="C68">
+        <v>0.1028970381695203</v>
+      </c>
+      <c r="D68">
+        <v>-0.2593122416307178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002681435046186437</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005800816983124377</v>
+      </c>
+      <c r="C69">
+        <v>0.04836594484585898</v>
+      </c>
+      <c r="D69">
+        <v>0.04313407900570477</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001724473637700674</v>
+      </c>
+      <c r="C70">
+        <v>0.002171860291409832</v>
+      </c>
+      <c r="D70">
+        <v>0.002359241314158084</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.002194674392371396</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006126812022417219</v>
+      </c>
+      <c r="C71">
+        <v>0.107075664340854</v>
+      </c>
+      <c r="D71">
+        <v>-0.2854799859313206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.005754186215201474</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01540816745391565</v>
+      </c>
+      <c r="C72">
+        <v>0.1496182423697018</v>
+      </c>
+      <c r="D72">
+        <v>0.01989706972895539</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01037896879918767</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02928109121765642</v>
+      </c>
+      <c r="C73">
+        <v>0.2811581022982239</v>
+      </c>
+      <c r="D73">
+        <v>0.04556619765203151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004046056224410676</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001243063574986742</v>
+      </c>
+      <c r="C74">
+        <v>0.1038167699238766</v>
+      </c>
+      <c r="D74">
+        <v>0.04454909691218973</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.004089763941975783</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01059837789661016</v>
+      </c>
+      <c r="C75">
+        <v>0.1323818751391149</v>
+      </c>
+      <c r="D75">
+        <v>0.02591877805068564</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01138425446015672</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02097709944812167</v>
+      </c>
+      <c r="C76">
+        <v>0.1475530135303552</v>
+      </c>
+      <c r="D76">
+        <v>0.07076219333702724</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0009527799739931131</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02408010759843105</v>
+      </c>
+      <c r="C77">
+        <v>0.134814789045837</v>
+      </c>
+      <c r="D77">
+        <v>0.06552166175271616</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.00190011253515724</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01411026334107349</v>
+      </c>
+      <c r="C78">
+        <v>0.09234597603782041</v>
+      </c>
+      <c r="D78">
+        <v>0.06757102067592585</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02577548229140388</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03665070510281155</v>
+      </c>
+      <c r="C79">
+        <v>0.1565048317003435</v>
+      </c>
+      <c r="D79">
+        <v>0.03233574496950032</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.005150417570056672</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01029179559077426</v>
+      </c>
+      <c r="C80">
+        <v>0.04125012439022772</v>
+      </c>
+      <c r="D80">
+        <v>0.03276240823094013</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0003868232016714711</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01434869241003526</v>
+      </c>
+      <c r="C81">
+        <v>0.1233778661664097</v>
+      </c>
+      <c r="D81">
+        <v>0.05666929803826434</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005408814386870204</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01934162587844084</v>
+      </c>
+      <c r="C82">
+        <v>0.1418245295025046</v>
+      </c>
+      <c r="D82">
+        <v>0.04569970637413812</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008570660346021781</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009886765901546597</v>
+      </c>
+      <c r="C83">
+        <v>0.0566329490195784</v>
+      </c>
+      <c r="D83">
+        <v>0.04819783532704443</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01281012677806755</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01158801829201913</v>
+      </c>
+      <c r="C84">
+        <v>0.03285217924295997</v>
+      </c>
+      <c r="D84">
+        <v>-0.003884186882777199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01495144037913166</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02773092790797038</v>
+      </c>
+      <c r="C85">
+        <v>0.1281987583210764</v>
+      </c>
+      <c r="D85">
+        <v>0.04958868814413559</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.003895911657736742</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.00530344400247516</v>
+      </c>
+      <c r="C86">
+        <v>0.04753284917942655</v>
+      </c>
+      <c r="D86">
+        <v>0.02309718577807024</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004768002843163257</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01007698641494289</v>
+      </c>
+      <c r="C87">
+        <v>0.1297195178841744</v>
+      </c>
+      <c r="D87">
+        <v>0.07671880534291339</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.0140802393420356</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002871063739142364</v>
+      </c>
+      <c r="C88">
+        <v>0.06892452700183137</v>
+      </c>
+      <c r="D88">
+        <v>0.01476721649125582</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01556391136339543</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.0008962491541577986</v>
+      </c>
+      <c r="C89">
+        <v>0.1588165368464011</v>
+      </c>
+      <c r="D89">
+        <v>-0.3392919860902511</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002544593501421211</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007433946239708162</v>
+      </c>
+      <c r="C90">
+        <v>0.1379684621836966</v>
+      </c>
+      <c r="D90">
+        <v>-0.3222521320172213</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001168873572703557</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01006654666083867</v>
+      </c>
+      <c r="C91">
+        <v>0.1047589511865712</v>
+      </c>
+      <c r="D91">
+        <v>0.02017637059885191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.009308233328170611</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0007093376122323194</v>
+      </c>
+      <c r="C92">
+        <v>0.1463104648366117</v>
+      </c>
+      <c r="D92">
+        <v>-0.3296334576429068</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.002031896982839497</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005298756633304759</v>
+      </c>
+      <c r="C93">
+        <v>0.1201829222262212</v>
+      </c>
+      <c r="D93">
+        <v>-0.3136021811537181</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004143109358324616</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02198508697308457</v>
+      </c>
+      <c r="C94">
+        <v>0.1554276926130058</v>
+      </c>
+      <c r="D94">
+        <v>0.03342705524261701</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004716689712891124</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01594026194002428</v>
+      </c>
+      <c r="C95">
+        <v>0.1242063107895129</v>
+      </c>
+      <c r="D95">
+        <v>0.06554005655230677</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.001763186495708211</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03440324256075885</v>
+      </c>
+      <c r="C97">
+        <v>0.1804791931075063</v>
+      </c>
+      <c r="D97">
+        <v>0.03855387184490515</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.003222758513132444</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03625055382660885</v>
+      </c>
+      <c r="C98">
+        <v>0.2534033257292971</v>
+      </c>
+      <c r="D98">
+        <v>0.04664221537879627</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9827408888996602</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9828140585915598</v>
+      </c>
+      <c r="C99">
+        <v>-0.1098041565380369</v>
+      </c>
+      <c r="D99">
+        <v>-0.03087787831956936</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001165512333536775</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003262696144931555</v>
+      </c>
+      <c r="C101">
+        <v>0.04936359622521233</v>
+      </c>
+      <c r="D101">
+        <v>0.01378981415501837</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
